--- a/files/services.xlsx
+++ b/files/services.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="src" sheetId="1" r:id="rId1"/>
     <sheet name="1620208162239" sheetId="2" r:id="rId2"/>
+    <sheet name="1620292552731" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -2597,6 +2598,1528 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C137"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>service</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+      <c r="C1" t="str">
+        <v>time</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>availability/availableDate?clientId=1</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>availability/availablePortfolioIdName?activityDateId=10759</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>availability/availableManagerIdName?activityDateId=10759</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>overview/managerOverview?activityDateId=10759&amp;isJmr=1&amp;isPosGross=0&amp;isNra=0</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>overview/portfolioOverview?activityDateId=10759&amp;isJmr=1&amp;isPosGross=0&amp;isNra=0</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>position/positionSummary?activityDateId=10759&amp;collectiveId=10&amp;isJmr=1&amp;betaId=15&amp;isPosGross=0&amp;isNra=0</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>position/positionSummaryTop?activityDateId=10759&amp;collectiveId=10&amp;isJmr=1&amp;isPosGross=0&amp;chartType=issuerRegion&amp;regionType=geography&amp;isNra=0</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>position/positionSummaryTopStock?activityDateId=10759&amp;collectiveId=720&amp;sortType=tl&amp;isJmr=1&amp;betaId=15&amp;isPosGross=0&amp;isNra=0</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>position/positionScenarioCharts?activityDateId=10759&amp;collectiveId=10&amp;isJmr=1&amp;isNra=0&amp;chart=Rates&amp;isPosGross=0</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>position/positionScenarioList?collectiveId=10&amp;activityDateId=10759&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>position/positionScenarioCharts?activityDateId=10759&amp;collectiveId=10&amp;isJmr=1&amp;isNra=0&amp;chart=Credit&amp;isPosGross=0</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>position/positionScenarioCharts?activityDateId=10759&amp;collectiveId=10&amp;isJmr=1&amp;isNra=0&amp;chart=Equities&amp;isPosGross=0</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>historical/histVarSpecific?collectiveId=10&amp;isJmr=1&amp;isNra=0&amp;startDateId=10629&amp;endDateId=10759&amp;category=AssetType&amp;scenario=95_VaR_Hist&amp;metric=VaR&amp;isPosGross=0</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>position/positionSec13D?activityDateId=10759&amp;collectiveId=10&amp;limit=10&amp;isJmr=1&amp;isNra=0</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>position/positionAttributionSimpleQtdSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;Field=exposure&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>position/positionAttributionSimpleYtdSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;Field=exposure&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>position/positionPortfolioSummaryCsv;view=csv;fileName=LNAV-Top%20Summary-2021-03-26.csv?activityDateId=10759&amp;collectiveId=10&amp;isJmr=1&amp;betaId=15&amp;isPosGross=0&amp;isNra=0</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>position/positionAttributionIntegratedSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;periodType=m&amp;Field=exposure&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>position/positionAttributionIntegratedSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;periodType=q&amp;Field=exposure&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>position/positionAttributionIntegratedSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;periodType=y&amp;Field=exposure&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>position/positionAttributionCredit?activityDateId=10759&amp;collectiveId=720&amp;periodType=y&amp;chartType=rating&amp;isJmr=1&amp;isNra=0</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>position/positionAttributionCredit?activityDateId=10759&amp;collectiveId=720&amp;periodType=y&amp;chartType=duration&amp;isJmr=1&amp;isNra=0</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>position/positionAttributionFactorModelList?collectiveId=720&amp;activityDateId=10759</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>position/positionAttributionFactorModelSlice?activityDateId=10759&amp;collectiveId=720&amp;window=m&amp;modelId=30&amp;isJmr=1&amp;isNra=0&amp;factor=Unmodeled&amp;factor=Residual&amp;Field=manager&amp;betaRecentBeginDate=10687&amp;timePeriodBeginDate=10740&amp;isPosGross=0</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>position/positionAttributionFactorModelSlice?activityDateId=10759&amp;collectiveId=720&amp;window=q&amp;modelId=30&amp;isJmr=1&amp;isNra=0&amp;factor=Unmodeled&amp;factor=Residual&amp;Field=manager&amp;betaRecentBeginDate=10687&amp;timePeriodBeginDate=10699&amp;isPosGross=0</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>position/positionAttributionFactorModelSlice?activityDateId=10759&amp;collectiveId=720&amp;window=y&amp;modelId=30&amp;isJmr=1&amp;isNra=0&amp;factor=Unmodeled&amp;factor=Residual&amp;Field=manager&amp;betaRecentBeginDate=10687&amp;timePeriodBeginDate=10699&amp;isPosGross=0</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>position/positionFactorModelContribution?collectiveType=portfolio&amp;betaFactRecentInd=1&amp;modelId=30&amp;collectiveId=720&amp;activityDateId=10759&amp;isNra=0&amp;isJmr=1&amp;Field=manager&amp;factor=Stock&amp;benchmarkId=0&amp;isScale=0&amp;isPosGross=0</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>position/positionFactorModelContribution?collectiveType=portfolio&amp;betaFactRecentInd=1&amp;modelId=30&amp;collectiveId=720&amp;activityDateId=10759&amp;isNra=0&amp;isJmr=1&amp;Field=manager&amp;Field=subsector&amp;Field=longShort&amp;factor=Stock&amp;benchmarkId=0&amp;isScale=0&amp;isPosGross=0</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>position/positionLookback?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>position/positionOffsetOverlapTopPosition?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;chartType=offset&amp;managerId=749&amp;isPosGross=0&amp;sortKey=dollarValue&amp;direction=DESC&amp;offset=0&amp;limit=50&amp;type=json&amp;isNra=0</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+      <c r="C31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>position/positionOffsetOverlapMatrixPosition?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;chartType=offset&amp;managerXId=1125&amp;managerYId=749&amp;type=json&amp;isPosGross=0&amp;sortKey=dollarValue&amp;direction=DESC&amp;offset=0&amp;limit=50&amp;isNra=0</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>position/positionOffsetLongShortPosition?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;bucket=short&amp;isPosGross=0&amp;sortKey=dollarValue&amp;direction=DESC&amp;offset=0&amp;limit=50&amp;type=json&amp;isNra=0</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>position/positionScenarioCharts?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;chart=Commodities&amp;isPosGross=0</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+      <c r="C34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>position/positionScenarioList?collectiveId=720&amp;activityDateId=10759&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>position/positionPositionsTotals?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;isPosGross=0&amp;isDelta=1&amp;sortKey=grossExposure&amp;offset=1&amp;limit=50&amp;direction=DESC&amp;widget=positions&amp;betaId=15&amp;compareDateId=10758</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>position/positionPNLAnalyticsBattingAverageSlice?activityDateId=10761&amp;collectiveId=4&amp;isJmr=1&amp;isPosGross=0&amp;periodType=m&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>position/positionPNLAnalyticsPositionSizingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=m&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>position/positionPNLAnalyticsTradingAttributionSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=m&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+      <c r="C39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>position/positionPNLAnalyticsEventTradingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=m&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15&amp;hitType=normal</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>position/positionPNLAnalyticsEventTradingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=m&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15&amp;hitType=earning</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+      <c r="C41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>position/positionPNLAnalyticsBattingAverageSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=q&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>position/positionPNLAnalyticsPositionSizingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=q&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>position/positionPNLAnalyticsTradingAttributionSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=q&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+      <c r="C44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>position/positionPNLAnalyticsEventTradingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=q&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15&amp;hitType=normal</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+      <c r="C45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>position/positionPNLAnalyticsEventTradingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=q&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15&amp;hitType=earning</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>position/positionPNLAnalyticsBattingAverageSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=y&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+      <c r="C47">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>position/positionPNLAnalyticsPositionSizingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=y&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>position/positionPNLAnalyticsTradingAttributionSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=y&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>position/positionPNLAnalyticsEventTradingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=y&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15&amp;hitType=normal</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>position/positionPNLAnalyticsEventTradingSlice?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isPosGross=0&amp;periodType=y&amp;chartType=portfolio&amp;isNra=0&amp;level1=sector&amp;level2=null&amp;level3=null&amp;betaId=15&amp;hitType=earning</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+      <c r="C51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>position/positionAttributionFactorModelList?activityDateId=10759&amp;collectiveId=720</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>position/positionPNLAnalyticsSecuritySelectionAttribution?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;isPosGross=0&amp;Field=exposure&amp;periodType=q&amp;benchmarkName=FTSE%20All%20World&amp;weight=equal&amp;modelId=30&amp;timePeriodBeginDate=10699</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>position/positionPNLAnalyticsSecuritySelectionAttribution?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;isPosGross=0&amp;Field=exposure&amp;periodType=y&amp;benchmarkName=FTSE%20All%20World&amp;weight=equal&amp;modelId=30&amp;timePeriodBeginDate=10699</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>position/positionOptionExposureListManagers?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>position/positionCreditListManagers?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+      <c r="C56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>position/positionDecisionAnalysisChart?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1&amp;reportPeriod=1m&amp;benchmark=FTSE%20All%20World</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>position/positionDecisionAnalysisListSector?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>position/positionDecisionAnalysisListMktCap?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+      <c r="C59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>position/positionDecisionAnalysisListRegion?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>position/positionDecisionAnalysisListIssuerRegion?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>position/positionDecisionAnalysis?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1&amp;reportPeriod=1m&amp;benchmark=FTSE%20All%20World&amp;field=exposure</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>historical/histSummary?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;startDateId=7761&amp;endDateId=10759&amp;isPosGross=0&amp;sortType=tp&amp;betaId=15&amp;isNra=0</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+      <c r="C63">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>historical/histSummary?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;isPosGross=0&amp;sortType=be&amp;betaId=15&amp;isNra=0</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+      <c r="C64">
+        <v>212.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>historical/histCorrelationAvgCorrVol?collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;isGross=1&amp;window=2m&amp;isNra=0</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+      <c r="C65">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>historical/histCorrelationAvgCorrVol?collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;isGross=1&amp;window=22d&amp;isNra=0</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+      <c r="C66">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>historical/histAttributionSimple?endDateId=10759&amp;startDateId=7761&amp;collectiveId=720&amp;isNra=0&amp;isJmr=1&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0&amp;chartType=exposure</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+      <c r="C67">
+        <v>482.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>historical/histCrossSectional?collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;section=ADV&amp;betaId=15&amp;isNra=0</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+      <c r="C68">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>historical/histCrossSectional?collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;section=DIV&amp;betaId=15&amp;isNra=0</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+      <c r="C69">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>historical/histCrossSectional?collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;section=BETA&amp;betaId=15&amp;isNra=0</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+      <c r="C70">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>historical/histCrossSectional?collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;section=MKTCAP&amp;betaId=15&amp;isNra=0</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+      <c r="C71">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>historical/histExposureStrategy?collectiveId=720&amp;isJmr=1&amp;startDateId=10629&amp;endDateId=10759&amp;isNra=0</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+      <c r="C72">
+        <v>290.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>historical/histFactorModelBeta?collectiveId=720&amp;modelId=30&amp;isJmr=1&amp;isNra=0&amp;isGross=0&amp;startDateId=0&amp;endDateId=10759</v>
+      </c>
+      <c r="B73">
+        <v>400</v>
+      </c>
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>historical/histFactorModelVol?collectiveId=720&amp;modelId=30&amp;isJmr=1&amp;isNra=0&amp;startDateId=0&amp;endDateId=10759</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>historical/histFactorModelFactorList?collectiveId=720&amp;modelId=30&amp;isJmr=1&amp;isNra=0</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+      <c r="C75">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>historical/histFactorModelVolDrilldownBetaFact?modelId=30&amp;startDateId=10629&amp;endDateId=10759</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>historical/histOffset?endDateId=10759&amp;startDateId=10629&amp;collectiveId=720&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+      <c r="C77">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>historical/histOverlap?endDateId=10759&amp;startDateId=10629&amp;collectiveId=720&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+      <c r="C78">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>historical/histOffsetOverlapIndexLongShort?endDateId=10759&amp;startDateId=10629&amp;collectiveId=720&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0&amp;chartType=overlap&amp;benchmarkId=1005&amp;modelId=30</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+      <c r="C79">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>historical/histFuturesManagerList?startDateId=0&amp;endDateId=10759&amp;collectiveId=720&amp;isNra=0&amp;isJmr=1</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+      <c r="C80">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>historical/histFuturesExposure?startDateId=0&amp;endDateId=10759&amp;collectiveId=720&amp;isNra=0&amp;isJmr=1&amp;type=assetType&amp;isPosGross=0</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+      <c r="C81">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>historical/histFuturesPnl?startDateId=0&amp;endDateId=10759&amp;collectiveId=720&amp;isNra=0&amp;isJmr=1&amp;type=assetType&amp;isPosGross=0</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+      <c r="C82">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>historical/histScenarioList?collectiveId=720&amp;isNra=0&amp;startDateId=0&amp;endDateId=10759&amp;isPosGross=0</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+      <c r="C83">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>historical/histAlphaDecayAvailableTimeframe?collectiveId=720</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+      <c r="C84">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>historical/histAlphaDecay?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1&amp;positionType=all&amp;tradeAction=new%20entry&amp;modelId=30&amp;timeFrame=LTM</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+      <c r="C85">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>historical/histFI?endDateId=10759&amp;startDateId=10629&amp;collectiveId=720&amp;l1=currency</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+      <c r="C86">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>historical/histAlphaDecayListMktCap?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+      <c r="C87">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>historical/histPNLAnalyticsSecuritySelectionAttribution?isPosGross=0&amp;isNra=0&amp;isJmr=1&amp;collectiveId=720&amp;modelId=30&amp;weight=equal&amp;benchmarkName=FTSE%20All%20World&amp;chartType=exposure&amp;startDateId=10629&amp;endDateId=10759&amp;metric=fundReturn</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+      <c r="C88">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>historical/histFX?startDateId=0&amp;endDateId=10759&amp;collectiveId=720&amp;l1=instruments</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+      <c r="C89">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>insights/insightExposureNewBucket?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;window=1y&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+      <c r="C90">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>insights/insightNewSecurity?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;window=1y&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+      <c r="C91">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>insights/insightNewTopSecurity?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;window=1y&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+      <c r="C92">
+        <v>37.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>insights/insightSecurityBigMove?activityDateId=10759&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+      <c r="C93">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>position/positionAllocationForManagerRanking?activityDateId=10759&amp;collectiveId=720&amp;isGross=0&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+      <c r="C94">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>position/positionFactorModelPredictedValuesForManagerRanking?activityDateId=10759&amp;collectiveId=720&amp;isGross=0&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+      <c r="C95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>securities/managerList?beginDateId=0&amp;endDateId=10759&amp;activityDateId=10759&amp;securityId=3089370&amp;isJmr=1&amp;type=shares</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+      <c r="C96">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>securities/portfolioList?beginDateId=0&amp;endDateId=10759&amp;activityDateId=10759&amp;securityId=3089370&amp;isJmr=1&amp;type=shares</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+      <c r="C97">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>securities/securityFactorModelList?permissionId=1&amp;securityId=3089370&amp;activityDateId=10759</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+      <c r="C98">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>securities/peerGroup?activityDateId=10759&amp;securityId=3089370&amp;group=region&amp;sortKey=managerHold&amp;offset=1&amp;limit=50&amp;direction=desc</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+      <c r="C99">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>position/positionPositions?activityDateId=10740&amp;isJmr=1&amp;sortKey=dollarValue&amp;direction=DESC&amp;offset=1&amp;limit=50&amp;isDelta=0&amp;betaId=15&amp;isPosGross=0&amp;collectiveId=9&amp;isNra=0</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+      <c r="C100">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>position/positionPositionsTotals?activityDateId=10740&amp;isJmr=1&amp;isDelta=0&amp;isPosGross=0&amp;collectiveId=9&amp;isNra=0</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>securities/securityFactorModelAttributionChart?beginDateId=10632&amp;endDateId=10761&amp;modelId=30&amp;securityId=40905&amp;permissionId=1&amp;sedol=BH4HKS3</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+      <c r="C102">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>securities/securityFactorModelFactorList?permissionId=1&amp;modelId=30&amp;securityId=40905&amp;sedol=BH4HKS3</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+      <c r="C103">
+        <v>1103.6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>position/positionExposuresField?activityDateId=10761&amp;collectiveId=1124&amp;isJmr=1</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+      <c r="C104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>position/positionExposures?activityDateId=10761&amp;collectiveId=1124&amp;isJmr=1&amp;isNra=0&amp;isEtf=1&amp;Field=assetClass&amp;isPosGross=0&amp;display=table</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+      <c r="C105">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>position/positionFactorModelList?collectiveId=1124&amp;activityDateId=10761&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+      <c r="C106">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>position/positionFactorModelBenchmarkList?collectiveId=1124&amp;activityDateId=10761&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+      <c r="C107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>position/positionFXForeignCurrency?activityDateId=10761&amp;collectiveId=1124&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+      <c r="C108">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>position/positionFI?activityDateId=10761&amp;collectiveId=1124&amp;isNra=0&amp;l1=currency</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>position/positionOptionOverview?activityDateId=10761&amp;collectiveId=1124&amp;isJmr=1&amp;l1=longShort</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+      <c r="C110">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>historical/histSummaryDtd?activityDateId=10761&amp;collectiveId=1124&amp;isJmr=1&amp;startDateId=10632&amp;endDateId=10761&amp;isPosGross=0&amp;isNra=0</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+      <c r="C111">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>historical/histSummaryAttrResidual?activityDateId=10761&amp;collectiveId=1124&amp;isJmr=1&amp;startDateId=10632&amp;endDateId=10761&amp;isPosGross=0&amp;benchmarkName=FTSE%20All%20World&amp;isNra=0</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+      <c r="C112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>historical/histSummaryAttrIntegrated?activityDateId=10761&amp;collectiveId=1124&amp;isJmr=1&amp;startDateId=10632&amp;endDateId=10761&amp;isPosGross=0&amp;benchmarkName=FTSE%20All%20World&amp;isNra=0</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+      <c r="C113">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>historical/histExposureSecurityIndexSplit?collectiveId=1124&amp;isJmr=1&amp;startDateId=10632&amp;endDateId=10761&amp;isNra=0</v>
+      </c>
+      <c r="B114">
+        <v>200</v>
+      </c>
+      <c r="C114">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>historical/histPNLAnalyticsBattingAverage?collectiveId=1124&amp;startDateId=10632&amp;endDateId=10761&amp;isJmr=1&amp;isNra=0&amp;isPosGross=0&amp;exposure=net&amp;segment=marketCap&amp;subSegment=all</v>
+      </c>
+      <c r="B115">
+        <v>200</v>
+      </c>
+      <c r="C115">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>historical/histPNLAnalyticsPositionSizing?collectiveId=1124&amp;startDateId=10632&amp;endDateId=10761&amp;isJmr=1&amp;isNra=0&amp;isPosGross=0&amp;exposure=net&amp;segment=marketCap&amp;subSegment=all</v>
+      </c>
+      <c r="B116">
+        <v>200</v>
+      </c>
+      <c r="C116">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>historical/histPNLAnalyticsTradingAttribution?collectiveId=1124&amp;startDateId=10632&amp;endDateId=10761&amp;isJmr=1&amp;isNra=0&amp;isPosGross=0&amp;exposure=net&amp;segment=marketCap&amp;subSegment=all</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+      <c r="C117">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>historical/histPNLAnalyticsEarningScorecard?collectiveId=1124&amp;startDateId=10632&amp;endDateId=10761&amp;isJmr=1&amp;isNra=0&amp;isPosGross=0&amp;exposure=net&amp;segment=marketCap&amp;subSegment=all</v>
+      </c>
+      <c r="B118">
+        <v>200</v>
+      </c>
+      <c r="C118">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>alert/alertRuleEntitySummary?activityDateId=10761&amp;collectiveId=1124&amp;isJmr=1&amp;timestamp=1617272058973&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B119">
+        <v>200</v>
+      </c>
+      <c r="C119">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>dashboard/ErrorHandling/errorHandlingListStatusPlugin?startDateId=10761&amp;activityDateId=10761&amp;collectiveId=1124&amp;collectiveType=Portfolio</v>
+      </c>
+      <c r="B120">
+        <v>200</v>
+      </c>
+      <c r="C120">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>dashboard/ErrorHandling/errorSummaryPlugin?sortKey=errorSid&amp;direction=ASC&amp;offset=1&amp;limit=50&amp;collectiveId=1124&amp;collectiveType=Portfolio&amp;status=Unresolved&amp;startDateId=10761&amp;activityDateId=10761&amp;isNra=0</v>
+      </c>
+      <c r="B121">
+        <v>200</v>
+      </c>
+      <c r="C121">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>dashboard/ErrorHandling/errorSummaryTotalPlugin?collectiveId=1124&amp;collectiveType=Portfolio&amp;status=Unresolved&amp;startDateId=10761&amp;activityDateId=10761&amp;offset=1&amp;isNra=0</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+      <c r="C122">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>dashboard/dqmEntityListPane?activityDateId=10761&amp;collectiveType=portfolio</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+      <c r="C123">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>dashboard/dqmEntityListPane?activityDateId=10761&amp;collectiveType=manager</v>
+      </c>
+      <c r="B124">
+        <v>200</v>
+      </c>
+      <c r="C124">
+        <v>216.7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>dashboard/dqmEntityErrorsTable?activityDateId=10761&amp;collectiveId=720&amp;collectiveType=portfolio</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+      <c r="C125">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>dashboard/dqmVendorPerformanceSummary?activityDateId=10761&amp;window=1m</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+      <c r="C126">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>position/positionAttributionSimpleDtdSlice?activityDateId=10761&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;Field=exposure&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0</v>
+      </c>
+      <c r="B127">
+        <v>200</v>
+      </c>
+      <c r="C127">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>position/positionUnmodeledCashTotal?activityDateId=10748&amp;collectiveId=6&amp;isJmr=1&amp;isNra=0</v>
+      </c>
+      <c r="B128">
+        <v>200</v>
+      </c>
+      <c r="C128">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>position/positionAttributionSimpleMtdSlice?activityDateId=10761&amp;collectiveId=4&amp;isJmr=1&amp;isNra=0&amp;Field=exposure&amp;benchmarkName=FTSE%20All%20World&amp;isPosGross=0</v>
+      </c>
+      <c r="B129">
+        <v>200</v>
+      </c>
+      <c r="C129">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>position/positionFactorModelContributionForManagerRanking?activityDateId=10761&amp;collectiveId=720&amp;isGross=0&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0&amp;collectiveType=portfolio&amp;modelId=26&amp;Field=manager&amp;factor=Style&amp;factor=Market&amp;benchmarkId=0&amp;betaFactRecentInd=1</v>
+      </c>
+      <c r="B130">
+        <v>200</v>
+      </c>
+      <c r="C130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>position/positionAttributionFactorModelForManagerRanking?activityDateId=10761&amp;collectiveId=720&amp;isGross=0&amp;isNra=0&amp;isJmr=1&amp;isPosGross=0</v>
+      </c>
+      <c r="B131">
+        <v>200</v>
+      </c>
+      <c r="C131">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>insights/insightBigTrade?activityDateId=10761&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;window=6m&amp;windowSigma=3&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B132">
+        <v>200</v>
+      </c>
+      <c r="C132">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>insights/insightCrowdedSecurity?activityDateId=10761&amp;collectiveId=720&amp;isJmr=1&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B133">
+        <v>200</v>
+      </c>
+      <c r="C133">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>insights/insightExtremeBeta?activityDateId=10761&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;window=6m&amp;windowSigma=2&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+      <c r="C134">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>insights/insightExtremeExposure?activityDateId=10761&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;window=1m&amp;windowSigma=3&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B135">
+        <v>200</v>
+      </c>
+      <c r="C135">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>insights/insightExtremeVar?activityDateId=10761&amp;collectiveId=720&amp;isJmr=1&amp;isNra=0&amp;window=1y&amp;userId=mig%40a.com</v>
+      </c>
+      <c r="B136">
+        <v>200</v>
+      </c>
+      <c r="C136">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>position/positionDecisionAnalysis?collectiveId=720&amp;activityDateId=10759&amp;isJmr=1&amp;reportPeriod=1y&amp;benchmark=FTSE%20All%20World&amp;field=exposure</v>
+      </c>
+      <c r="B137">
+        <v>200</v>
+      </c>
+      <c r="C137">
+        <v>1467.9</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C137"/>
   </ignoredErrors>
